--- a/data/trans_orig/ProbViv_estruc-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/ProbViv_estruc-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A976271-A66E-433E-877A-840475F04915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11CE9168-C252-4D41-9AE6-BF4ED67A6711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D3731C07-BB45-462A-94A7-4FD61B70C94A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8B13604E-B598-46DC-A55B-6F8068DD2965}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
   <si>
     <t>Hogares con problemas estructurales en la vivienda (goteras, humedades, podredumbre) en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>1,69%</t>
   </si>
   <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
   </si>
   <si>
     <t>2,55%</t>
   </si>
   <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
   </si>
   <si>
     <t>2,13%</t>
   </si>
   <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>98,31%</t>
   </si>
   <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
   </si>
   <si>
     <t>97,45%</t>
   </si>
   <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
   </si>
   <si>
     <t>97,87%</t>
   </si>
   <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,25 +137,25 @@
     <t>12,07%</t>
   </si>
   <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
   </si>
   <si>
     <t>9,35%</t>
   </si>
   <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
   </si>
   <si>
     <t>10,67%</t>
   </si>
   <si>
-    <t>8,45%</t>
+    <t>8,69%</t>
   </si>
   <si>
     <t>12,93%</t>
@@ -164,19 +164,19 @@
     <t>87,93%</t>
   </si>
   <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
   </si>
   <si>
     <t>90,65%</t>
   </si>
   <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
   </si>
   <si>
     <t>89,33%</t>
@@ -185,7 +185,7 @@
     <t>87,07%</t>
   </si>
   <si>
-    <t>91,55%</t>
+    <t>91,31%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -197,31 +197,31 @@
     <t>5,51%</t>
   </si>
   <si>
-    <t>11,9%</t>
+    <t>11,77%</t>
   </si>
   <si>
     <t>6,84%</t>
   </si>
   <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
   </si>
   <si>
     <t>7,51%</t>
   </si>
   <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
   </si>
   <si>
     <t>91,71%</t>
   </si>
   <si>
-    <t>88,1%</t>
+    <t>88,23%</t>
   </si>
   <si>
     <t>94,49%</t>
@@ -230,19 +230,19 @@
     <t>93,16%</t>
   </si>
   <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
   </si>
   <si>
     <t>92,49%</t>
   </si>
   <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -251,55 +251,55 @@
     <t>9,04%</t>
   </si>
   <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
   </si>
   <si>
     <t>6,54%</t>
   </si>
   <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
   </si>
   <si>
     <t>7,61%</t>
   </si>
   <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
   </si>
   <si>
     <t>90,96%</t>
   </si>
   <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
   </si>
   <si>
     <t>93,46%</t>
   </si>
   <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
   </si>
   <si>
     <t>92,39%</t>
   </si>
   <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -308,55 +308,55 @@
     <t>1,09%</t>
   </si>
   <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
   </si>
   <si>
     <t>4,08%</t>
   </si>
   <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
   </si>
   <si>
     <t>2,79%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
   </si>
   <si>
     <t>98,91%</t>
   </si>
   <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
   </si>
   <si>
     <t>95,92%</t>
   </si>
   <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
   </si>
   <si>
     <t>97,21%</t>
   </si>
   <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -365,55 +365,55 @@
     <t>11,17%</t>
   </si>
   <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
   </si>
   <si>
     <t>8,28%</t>
   </si>
   <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
   </si>
   <si>
     <t>9,73%</t>
   </si>
   <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
   </si>
   <si>
     <t>88,83%</t>
   </si>
   <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
   </si>
   <si>
     <t>91,72%</t>
   </si>
   <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
   </si>
   <si>
     <t>90,27%</t>
   </si>
   <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -422,55 +422,55 @@
     <t>4,91%</t>
   </si>
   <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
   </si>
   <si>
     <t>22,95%</t>
   </si>
   <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
   </si>
   <si>
     <t>15,04%</t>
   </si>
   <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
   </si>
   <si>
     <t>95,09%</t>
   </si>
   <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
   </si>
   <si>
     <t>77,05%</t>
   </si>
   <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
   </si>
   <si>
     <t>84,96%</t>
   </si>
   <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -479,109 +479,103 @@
     <t>16,56%</t>
   </si>
   <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
   </si>
   <si>
     <t>18,56%</t>
   </si>
   <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
   </si>
   <si>
     <t>17,56%</t>
   </si>
   <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
   </si>
   <si>
     <t>83,44%</t>
   </si>
   <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
   </si>
   <si>
     <t>81,44%</t>
   </si>
   <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
   </si>
   <si>
     <t>82,44%</t>
   </si>
   <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
   </si>
   <si>
     <t>9,72%</t>
   </si>
   <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
   </si>
   <si>
     <t>12,81%</t>
   </si>
   <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
   </si>
   <si>
     <t>11,37%</t>
   </si>
   <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
+    <t>16,99%</t>
   </si>
   <si>
     <t>90,28%</t>
   </si>
   <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
   </si>
   <si>
     <t>87,19%</t>
   </si>
   <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
   </si>
   <si>
     <t>88,63%</t>
   </si>
   <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
+    <t>83,01%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -996,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4FE7F09-2B68-4541-A029-605B09A175E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4694EAF-236A-4D72-967F-BA224640165B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1338,7 +1332,7 @@
         <v>649</v>
       </c>
       <c r="I8" s="7">
-        <v>501455</v>
+        <v>501454</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1389,7 +1383,7 @@
         <v>715</v>
       </c>
       <c r="I9" s="7">
-        <v>553173</v>
+        <v>553172</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2393,10 +2387,10 @@
         <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2411,13 +2405,13 @@
         <v>3054941</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>4848</v>
@@ -2426,28 +2420,28 @@
         <v>3341489</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>7885</v>
       </c>
       <c r="N29" s="7">
-        <v>6396431</v>
+        <v>6396430</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>180</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>181</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2489,7 +2483,7 @@
         <v>8736</v>
       </c>
       <c r="N30" s="7">
-        <v>7216619</v>
+        <v>7216618</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -2503,7 +2497,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/ProbViv_estruc-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/ProbViv_estruc-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11CE9168-C252-4D41-9AE6-BF4ED67A6711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56BFDA88-0EBC-4B18-8480-0D98269BE01D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8B13604E-B598-46DC-A55B-6F8068DD2965}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{345537F0-3BA0-4785-8005-B9F1279D3B7D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -990,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4694EAF-236A-4D72-967F-BA224640165B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539C2788-704F-4CFE-8E9B-2ACFAB7921BD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/ProbViv_estruc-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/ProbViv_estruc-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56BFDA88-0EBC-4B18-8480-0D98269BE01D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F85397EC-717A-4E76-9DFF-1C402893E2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{345537F0-3BA0-4785-8005-B9F1279D3B7D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{45EFCA35-AAA1-46BB-9082-6E1B23A6F100}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
-  <si>
-    <t>Hogares con problemas estructurales en la vivienda (goteras, humedades, podredumbre) en 2023 (Tasa respuesta: 99,92%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="183">
+  <si>
+    <t>Población con problemas estructurales en la vivienda (goteras, humedades, podredumbre) en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>1,69%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
   </si>
   <si>
     <t>2,55%</t>
   </si>
   <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
   </si>
   <si>
     <t>2,13%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>98,31%</t>
   </si>
   <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
   </si>
   <si>
     <t>97,45%</t>
   </si>
   <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
   </si>
   <si>
     <t>97,87%</t>
   </si>
   <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,25 +137,25 @@
     <t>12,07%</t>
   </si>
   <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
   </si>
   <si>
     <t>9,35%</t>
   </si>
   <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
   </si>
   <si>
     <t>10,67%</t>
   </si>
   <si>
-    <t>8,69%</t>
+    <t>8,45%</t>
   </si>
   <si>
     <t>12,93%</t>
@@ -164,19 +164,19 @@
     <t>87,93%</t>
   </si>
   <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
   </si>
   <si>
     <t>90,65%</t>
   </si>
   <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
   </si>
   <si>
     <t>89,33%</t>
@@ -185,7 +185,7 @@
     <t>87,07%</t>
   </si>
   <si>
-    <t>91,31%</t>
+    <t>91,55%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -197,31 +197,31 @@
     <t>5,51%</t>
   </si>
   <si>
-    <t>11,77%</t>
+    <t>11,9%</t>
   </si>
   <si>
     <t>6,84%</t>
   </si>
   <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
   </si>
   <si>
     <t>7,51%</t>
   </si>
   <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
   </si>
   <si>
     <t>91,71%</t>
   </si>
   <si>
-    <t>88,23%</t>
+    <t>88,1%</t>
   </si>
   <si>
     <t>94,49%</t>
@@ -230,19 +230,19 @@
     <t>93,16%</t>
   </si>
   <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
   </si>
   <si>
     <t>92,49%</t>
   </si>
   <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -251,55 +251,55 @@
     <t>9,04%</t>
   </si>
   <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
   </si>
   <si>
     <t>6,54%</t>
   </si>
   <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
   </si>
   <si>
     <t>7,61%</t>
   </si>
   <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
   </si>
   <si>
     <t>90,96%</t>
   </si>
   <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
   </si>
   <si>
     <t>93,46%</t>
   </si>
   <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
   </si>
   <si>
     <t>92,39%</t>
   </si>
   <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -308,55 +308,55 @@
     <t>1,09%</t>
   </si>
   <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
   </si>
   <si>
     <t>4,08%</t>
   </si>
   <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
   </si>
   <si>
     <t>2,79%</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
   </si>
   <si>
     <t>98,91%</t>
   </si>
   <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
   </si>
   <si>
     <t>95,92%</t>
   </si>
   <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
   </si>
   <si>
     <t>97,21%</t>
   </si>
   <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -365,55 +365,55 @@
     <t>11,17%</t>
   </si>
   <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
   </si>
   <si>
     <t>8,28%</t>
   </si>
   <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
   </si>
   <si>
     <t>9,73%</t>
   </si>
   <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
   </si>
   <si>
     <t>88,83%</t>
   </si>
   <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
   </si>
   <si>
     <t>91,72%</t>
   </si>
   <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
   </si>
   <si>
     <t>90,27%</t>
   </si>
   <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -422,160 +422,166 @@
     <t>4,91%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
   </si>
   <si>
     <t>22,95%</t>
   </si>
   <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
     <t>9,88%</t>
   </si>
   <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
   </si>
   <si>
     <t>90,12%</t>
   </si>
   <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
     <t>88,63%</t>
   </si>
   <si>
-    <t>83,01%</t>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -990,7 +996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539C2788-704F-4CFE-8E9B-2ACFAB7921BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587E1F79-2A4E-4BBA-AC86-CA81E020AB1E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1332,7 +1338,7 @@
         <v>649</v>
       </c>
       <c r="I8" s="7">
-        <v>501454</v>
+        <v>501455</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1383,7 +1389,7 @@
         <v>715</v>
       </c>
       <c r="I9" s="7">
-        <v>553172</v>
+        <v>553173</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2387,10 +2393,10 @@
         <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>56</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2405,13 +2411,13 @@
         <v>3054941</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>4848</v>
@@ -2420,28 +2426,28 @@
         <v>3341489</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>7885</v>
       </c>
       <c r="N29" s="7">
-        <v>6396430</v>
+        <v>6396431</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>64</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,7 +2489,7 @@
         <v>8736</v>
       </c>
       <c r="N30" s="7">
-        <v>7216618</v>
+        <v>7216619</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -2497,7 +2503,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/ProbViv_estruc-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/ProbViv_estruc-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F85397EC-717A-4E76-9DFF-1C402893E2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{237A177E-1B8B-49ED-9B1E-7D685BBED663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{45EFCA35-AAA1-46BB-9082-6E1B23A6F100}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{411DDB66-106C-47B6-88C0-3FC352EDAC6C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -71,517 +71,517 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
     <t>1,69%</t>
   </si>
   <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
   </si>
   <si>
     <t>98,31%</t>
   </si>
   <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
+    <t>97,39%</t>
   </si>
   <si>
     <t>95,58%</t>
   </si>
   <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
+    <t>98,51%</t>
   </si>
   <si>
     <t>Jaen</t>
   </si>
   <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
   </si>
   <si>
     <t>9,73%</t>
   </si>
   <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
   </si>
   <si>
     <t>90,27%</t>
   </si>
   <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
   </si>
   <si>
     <t>Malaga</t>
   </si>
   <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
   </si>
   <si>
     <t>Sevilla</t>
   </si>
   <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -996,7 +996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587E1F79-2A4E-4BBA-AC86-CA81E020AB1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF950694-AB7E-4D35-8B25-DBE8198B1A90}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1117,7 +1117,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>4397</v>
+        <v>5098</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1132,7 +1132,7 @@
         <v>14</v>
       </c>
       <c r="I4" s="7">
-        <v>6912</v>
+        <v>7289</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1147,7 +1147,7 @@
         <v>25</v>
       </c>
       <c r="N4" s="7">
-        <v>11309</v>
+        <v>12387</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1168,7 +1168,7 @@
         <v>320</v>
       </c>
       <c r="D5" s="7">
-        <v>255901</v>
+        <v>306345</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1183,7 +1183,7 @@
         <v>524</v>
       </c>
       <c r="I5" s="7">
-        <v>264491</v>
+        <v>282346</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1198,7 +1198,7 @@
         <v>844</v>
       </c>
       <c r="N5" s="7">
-        <v>520391</v>
+        <v>588690</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1219,7 +1219,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1234,7 +1234,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1249,7 +1249,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1272,7 +1272,7 @@
         <v>39</v>
       </c>
       <c r="D7" s="7">
-        <v>62690</v>
+        <v>65224</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1287,7 +1287,7 @@
         <v>66</v>
       </c>
       <c r="I7" s="7">
-        <v>51718</v>
+        <v>48236</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1302,7 +1302,7 @@
         <v>105</v>
       </c>
       <c r="N7" s="7">
-        <v>114408</v>
+        <v>113460</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1323,7 +1323,7 @@
         <v>343</v>
       </c>
       <c r="D8" s="7">
-        <v>456607</v>
+        <v>453166</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1338,7 +1338,7 @@
         <v>649</v>
       </c>
       <c r="I8" s="7">
-        <v>501455</v>
+        <v>465422</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1353,7 +1353,7 @@
         <v>992</v>
       </c>
       <c r="N8" s="7">
-        <v>958062</v>
+        <v>918588</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1374,7 +1374,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1389,7 +1389,7 @@
         <v>715</v>
       </c>
       <c r="I9" s="7">
-        <v>553173</v>
+        <v>513658</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1404,7 +1404,7 @@
         <v>1097</v>
       </c>
       <c r="N9" s="7">
-        <v>1072470</v>
+        <v>1032048</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1427,7 +1427,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="7">
-        <v>26629</v>
+        <v>26188</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1442,7 +1442,7 @@
         <v>41</v>
       </c>
       <c r="I10" s="7">
-        <v>25534</v>
+        <v>23979</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1457,7 +1457,7 @@
         <v>71</v>
       </c>
       <c r="N10" s="7">
-        <v>52162</v>
+        <v>50167</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1478,7 +1478,7 @@
         <v>329</v>
       </c>
       <c r="D11" s="7">
-        <v>294575</v>
+        <v>288858</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1493,7 +1493,7 @@
         <v>495</v>
       </c>
       <c r="I11" s="7">
-        <v>347750</v>
+        <v>325149</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1508,7 +1508,7 @@
         <v>824</v>
       </c>
       <c r="N11" s="7">
-        <v>642326</v>
+        <v>614006</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1529,7 +1529,7 @@
         <v>359</v>
       </c>
       <c r="D12" s="7">
-        <v>321204</v>
+        <v>315046</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1544,7 +1544,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1559,7 +1559,7 @@
         <v>895</v>
       </c>
       <c r="N12" s="7">
-        <v>694488</v>
+        <v>664173</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1582,7 +1582,7 @@
         <v>27</v>
       </c>
       <c r="D13" s="7">
-        <v>29122</v>
+        <v>27174</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1597,7 +1597,7 @@
         <v>36</v>
       </c>
       <c r="I13" s="7">
-        <v>27983</v>
+        <v>25730</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1612,7 +1612,7 @@
         <v>63</v>
       </c>
       <c r="N13" s="7">
-        <v>57104</v>
+        <v>52904</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1633,7 +1633,7 @@
         <v>265</v>
       </c>
       <c r="D14" s="7">
-        <v>293118</v>
+        <v>285383</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1648,7 +1648,7 @@
         <v>561</v>
       </c>
       <c r="I14" s="7">
-        <v>399752</v>
+        <v>449214</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1663,7 +1663,7 @@
         <v>826</v>
       </c>
       <c r="N14" s="7">
-        <v>692870</v>
+        <v>734596</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1684,7 +1684,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1699,7 +1699,7 @@
         <v>597</v>
       </c>
       <c r="I15" s="7">
-        <v>427735</v>
+        <v>474944</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1714,7 +1714,7 @@
         <v>889</v>
       </c>
       <c r="N15" s="7">
-        <v>749974</v>
+        <v>787500</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1737,7 +1737,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>2141</v>
+        <v>2022</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1752,7 +1752,7 @@
         <v>19</v>
       </c>
       <c r="I16" s="7">
-        <v>10576</v>
+        <v>9381</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -1767,7 +1767,7 @@
         <v>25</v>
       </c>
       <c r="N16" s="7">
-        <v>12717</v>
+        <v>11403</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -1788,7 +1788,7 @@
         <v>273</v>
       </c>
       <c r="D17" s="7">
-        <v>194607</v>
+        <v>176720</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -1803,7 +1803,7 @@
         <v>476</v>
       </c>
       <c r="I17" s="7">
-        <v>248937</v>
+        <v>249398</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -1818,7 +1818,7 @@
         <v>749</v>
       </c>
       <c r="N17" s="7">
-        <v>443543</v>
+        <v>426118</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -1839,7 +1839,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1854,7 +1854,7 @@
         <v>495</v>
       </c>
       <c r="I18" s="7">
-        <v>259513</v>
+        <v>258779</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1869,7 +1869,7 @@
         <v>774</v>
       </c>
       <c r="N18" s="7">
-        <v>456260</v>
+        <v>437521</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1892,7 +1892,7 @@
         <v>45</v>
       </c>
       <c r="D19" s="7">
-        <v>30973</v>
+        <v>30060</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -1907,7 +1907,7 @@
         <v>43</v>
       </c>
       <c r="I19" s="7">
-        <v>22815</v>
+        <v>21175</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -1922,7 +1922,7 @@
         <v>88</v>
       </c>
       <c r="N19" s="7">
-        <v>53788</v>
+        <v>51236</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -1943,7 +1943,7 @@
         <v>326</v>
       </c>
       <c r="D20" s="7">
-        <v>246250</v>
+        <v>239576</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -1958,7 +1958,7 @@
         <v>417</v>
       </c>
       <c r="I20" s="7">
-        <v>252807</v>
+        <v>235881</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -1973,7 +1973,7 @@
         <v>743</v>
       </c>
       <c r="N20" s="7">
-        <v>499057</v>
+        <v>475456</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -1994,7 +1994,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2009,7 +2009,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2024,7 +2024,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2047,7 +2047,7 @@
         <v>37</v>
       </c>
       <c r="D22" s="7">
-        <v>30837</v>
+        <v>29995</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>127</v>
@@ -2062,7 +2062,7 @@
         <v>100</v>
       </c>
       <c r="I22" s="7">
-        <v>184406</v>
+        <v>272588</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>130</v>
@@ -2077,7 +2077,7 @@
         <v>137</v>
       </c>
       <c r="N22" s="7">
-        <v>215243</v>
+        <v>302583</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>133</v>
@@ -2098,7 +2098,7 @@
         <v>561</v>
       </c>
       <c r="D23" s="7">
-        <v>596757</v>
+        <v>594120</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>136</v>
@@ -2113,7 +2113,7 @@
         <v>859</v>
       </c>
       <c r="I23" s="7">
-        <v>619018</v>
+        <v>575947</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>139</v>
@@ -2128,7 +2128,7 @@
         <v>1420</v>
       </c>
       <c r="N23" s="7">
-        <v>1215776</v>
+        <v>1170066</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>142</v>
@@ -2149,7 +2149,7 @@
         <v>598</v>
       </c>
       <c r="D24" s="7">
-        <v>627594</v>
+        <v>624115</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2164,7 +2164,7 @@
         <v>959</v>
       </c>
       <c r="I24" s="7">
-        <v>803424</v>
+        <v>848535</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2179,7 +2179,7 @@
         <v>1557</v>
       </c>
       <c r="N24" s="7">
-        <v>1431019</v>
+        <v>1472649</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2202,7 +2202,7 @@
         <v>142</v>
       </c>
       <c r="D25" s="7">
-        <v>142302</v>
+        <v>121197</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>146</v>
@@ -2217,7 +2217,7 @@
         <v>195</v>
       </c>
       <c r="I25" s="7">
-        <v>161154</v>
+        <v>133030</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>149</v>
@@ -2232,7 +2232,7 @@
         <v>337</v>
       </c>
       <c r="N25" s="7">
-        <v>303456</v>
+        <v>254227</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>152</v>
@@ -2253,7 +2253,7 @@
         <v>620</v>
       </c>
       <c r="D26" s="7">
-        <v>717126</v>
+        <v>807523</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>155</v>
@@ -2268,7 +2268,7 @@
         <v>867</v>
       </c>
       <c r="I26" s="7">
-        <v>707280</v>
+        <v>584701</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>158</v>
@@ -2283,7 +2283,7 @@
         <v>1487</v>
       </c>
       <c r="N26" s="7">
-        <v>1424406</v>
+        <v>1392225</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>161</v>
@@ -2304,7 +2304,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -2319,7 +2319,7 @@
         <v>1062</v>
       </c>
       <c r="I27" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -2334,7 +2334,7 @@
         <v>1824</v>
       </c>
       <c r="N27" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -2357,7 +2357,7 @@
         <v>337</v>
       </c>
       <c r="D28" s="7">
-        <v>329091</v>
+        <v>306958</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>164</v>
@@ -2372,7 +2372,7 @@
         <v>514</v>
       </c>
       <c r="I28" s="7">
-        <v>491098</v>
+        <v>541409</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>167</v>
@@ -2387,7 +2387,7 @@
         <v>851</v>
       </c>
       <c r="N28" s="7">
-        <v>820188</v>
+        <v>848367</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>170</v>
@@ -2408,7 +2408,7 @@
         <v>3037</v>
       </c>
       <c r="D29" s="7">
-        <v>3054941</v>
+        <v>3151690</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>173</v>
@@ -2423,7 +2423,7 @@
         <v>4848</v>
       </c>
       <c r="I29" s="7">
-        <v>3341489</v>
+        <v>3168056</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>176</v>
@@ -2438,7 +2438,7 @@
         <v>7885</v>
       </c>
       <c r="N29" s="7">
-        <v>6396431</v>
+        <v>6319746</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>179</v>
@@ -2459,7 +2459,7 @@
         <v>3374</v>
       </c>
       <c r="D30" s="7">
-        <v>3384032</v>
+        <v>3458648</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -2474,7 +2474,7 @@
         <v>5362</v>
       </c>
       <c r="I30" s="7">
-        <v>3832587</v>
+        <v>3709465</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -2489,7 +2489,7 @@
         <v>8736</v>
       </c>
       <c r="N30" s="7">
-        <v>7216619</v>
+        <v>7168113</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
